--- a/Spreadsheets/Cofactors/Isoprenoid_Mevalonate_Branch.xlsx
+++ b/Spreadsheets/Cofactors/Isoprenoid_Mevalonate_Branch.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seaver/Projects/PlantSEED_Repo/Spreadsheets/Cofactors/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="17000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Roles" localSheetId="0">Sheet1!$A$1:$M$15</definedName>
+    <definedName name="Roles" localSheetId="0">Sheet1!$D$1:$Q$15</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Roles.tsv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:seaver:Documents:Papers:PlantSEED_v2.0:Repo:Spreadsheets:Subsystems:Isoprenoid_biosynthesis_in_plants,_mevalonate_branch:Roles.tsv">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:seaver:Documents:Papers:PlantSEED_v2.0:Repo:Spreadsheets:Subsystems:Isoprenoid_biosynthesis_in_plants,_mevalonate_branch:Roles.tsv">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
   <si>
     <t>Role</t>
   </si>
@@ -185,16 +193,235 @@
   </si>
   <si>
     <t>AT1G31910</t>
+  </si>
+  <si>
+    <t>Consensus location</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Cofactor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x</t>
+    </r>
+  </si>
+  <si>
+    <t>SUBA: GFP and MS peroxisome; PPDB: curated peroxisome; TargetP: mito; Predotar: elsewhere; WolfPsort: cyto: 9, pero: 3, cysk: 1.5, cysk_nucl: 1.5; No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: GFP peroxisome and MS peroxisome and mito mainly; PPDB: curated peroxisome and mito; TargetP: mito; Predotar: elsewhere; WolfPsort:  cyto: 9, pero: 3, nucl: 1.5, cysk_nucl: 1.5; No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: GFP: cytosol; MS: peroxisome; PPDB: curated and targetP: cytosol; Predotar: elsewhere; WolfPsort: chlo: 10, cyto: 3; No signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:22332816</t>
+  </si>
+  <si>
+    <r>
+      <t>c,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x</t>
+    </r>
+  </si>
+  <si>
+    <t>SUBA: GFP: cytosol; MS: peroxisome; PPDB: curated and targetP: cytosol; Predotar: elsewhere; WolfPsort:  cyto: 6, chlo: 5, pero: 2; No signal peptide</t>
+  </si>
+  <si>
+    <t>c, d, x</t>
+  </si>
+  <si>
+    <t>PMID:20463027</t>
+  </si>
+  <si>
+    <t>SUBA: GFP: cytosol; MS: peroxisome; PPDB: curated peroxisome and targetP: cytosol; Predotar: elsewhere; WolfPsort: cyto: 9, cysk: 1.5, cysk_nucl: 1.5, chlo: 1, mito: 1; No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: GFP: peroxisome; PPDB: targetP: cytosol; Predotar: elsewhere; WolfPsort: cyto: 6, nucl: 2, E.R.: 2, chlo: 1, mito: 1, plas: 1; No signal peptide</t>
+  </si>
+  <si>
+    <t>PPDB: targetP: cytosol; Predotar: elsewhere; WolfPsort: cyto: 6, chlo: 5, nucl: 2; No signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:8302869</t>
+  </si>
+  <si>
+    <t>b, r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBA: GFP: endoplasmic reticulum; PPDB: curated ER and membrane; Predotar: elsewhere; WolfPsort: chlo_mito: 5, chlo: 4.5, mito: 4.5, nucl: 2, plas: 2; No signal peptide
+</t>
+  </si>
+  <si>
+    <t>c, d, m</t>
+  </si>
+  <si>
+    <t>PPDB: microsomal, ER curated; Predotar: elsewhere; WolfPsort: E.R.: 6, cyto: 5, chlo: 1, nucl: 1; Has signal peptide</t>
+  </si>
+  <si>
+    <t>c, r</t>
+  </si>
+  <si>
+    <t>PPDB: targetP: cytosol; Predotar: ER and elsewhere; WolfPsort: cyto: 8, chlo: 4, mito: 1; No signal peptide</t>
+  </si>
+  <si>
+    <t>c, d, r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID:8566777 </t>
+  </si>
+  <si>
+    <t>PMID:18319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBA: GFP and MS mito and plastid; PPDB: curated mito and cytosol; Predotar: ER and elsewhere; WolfPsort: cyto: 8, chlo: 4, mito: 1; No signal peptide </t>
+  </si>
+  <si>
+    <t>PMID:18988695</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid, multiple results; PPDB: curated: plastid and cytosol; targetP: cytosol; Predotar and WolfPsort: plastid; No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: GFP cytosol; PPDB: targetP cytosol; Predotar: elsewhere and ER; WolfPsort:   nucl: 9, chlo: 1, mito: 1, vacu: 1, E.R.: 1; No signal peptide. Predicitions all all over the place,but GFP is more reliable for cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBA: GFP cytosol and peroxisome; PPDB: targetP cytosol; Predotar: elsewhere and ER; WolfPsort: E.R.: 4.5, E.R._plas: 4.5, plas: 3.5, chlo: 3, mito: 1, vacu: 1; No signal peptide
+</t>
+  </si>
+  <si>
+    <t>CoA/ Acetyl-coenzyme A</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>NADPH</t>
+  </si>
+  <si>
+    <t>Expensive pathway, it uses many ATP units</t>
+  </si>
+  <si>
+    <t>CONSIDERATIONS FOR TRANSPORTERS</t>
+  </si>
+  <si>
+    <t>This pathway can occur as a cytosolic/endoplasmic reticulum pathway or as a cytosolic/endoplasmic reticulum/peroxisomal pathway</t>
+  </si>
+  <si>
+    <t>In both modalities  transport of (S)-3-hydroxy-3-methylglutaryl-CoA  into the endoplasmic reticulum and mevalonate out of the endoplasmic reticulum has to be considered</t>
+  </si>
+  <si>
+    <t>In the case of the  cytosolic/endoplasmic reticulum/peroxisomal pathway, further considerations have to be made: (R)-mevalonic acid 5-phosphate, and ATP need to be transported into the peroxisome to finish the pathway.</t>
+  </si>
+  <si>
+    <t>NADPH available in endoplasmic reticulum</t>
+  </si>
+  <si>
+    <t>ATP in peroxisome (also in cytosol)</t>
+  </si>
+  <si>
+    <t>Acetyl-coenzyme A has to be in mitochondria, peroxisome or cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTES: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -221,14 +448,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -558,371 +807,674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="12"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="O9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="O10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="M13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="C15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
+      <c r="M15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="D18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="D19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="D20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="D21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="D23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="D24" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="D25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="D26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="D27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>